--- a/data/mucnuoc_20rec.xlsx
+++ b/data/mucnuoc_20rec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync\websvr\xampp\py_import_excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBA1B49-DA2F-40DC-93A2-77572DE7FC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F547EE-8AFB-41D3-BEC1-81CFE982ED60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Trạm đo</t>
   </si>
@@ -88,62 +88,26 @@
     <t>2017-01-19</t>
   </si>
   <si>
-    <t>Chợ Lách 1</t>
-  </si>
-  <si>
-    <t>Chợ Lách 3</t>
-  </si>
-  <si>
-    <t>Chợ Lách 4</t>
-  </si>
-  <si>
-    <t>Chợ Lách 5</t>
-  </si>
-  <si>
-    <t>Chợ Lách 6</t>
-  </si>
-  <si>
-    <t>Chợ Lách 7</t>
-  </si>
-  <si>
-    <t>Chợ Lách 8</t>
-  </si>
-  <si>
-    <t>Chợ Lách 9</t>
-  </si>
-  <si>
-    <t>Chợ Lách 11</t>
-  </si>
-  <si>
-    <t>Chợ Lách 12</t>
-  </si>
-  <si>
-    <t>Chợ Lách 13</t>
-  </si>
-  <si>
-    <t>Chợ Lách 14</t>
-  </si>
-  <si>
-    <t>Chợ Lách 15</t>
-  </si>
-  <si>
-    <t>Chợ Lách 16</t>
-  </si>
-  <si>
-    <t>Chợ Lách 17</t>
-  </si>
-  <si>
-    <t>Chợ Lách 18</t>
-  </si>
-  <si>
-    <t>Chợ Lách 19</t>
+    <t>Chợ Lách</t>
+  </si>
+  <si>
+    <t>Long Hòa</t>
+  </si>
+  <si>
+    <t>Vàm Nước Trong</t>
+  </si>
+  <si>
+    <t>Bình Đại</t>
+  </si>
+  <si>
+    <t>Quới Sơn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -156,6 +120,11 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,10 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,12 +469,12 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
@@ -532,8 +502,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>27</v>
+      <c r="A3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>156</v>
@@ -544,7 +514,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
         <v>160</v>
@@ -555,7 +525,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>150</v>
@@ -565,8 +535,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>25</v>
+      <c r="A6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="2">
         <v>149</v>
@@ -576,8 +546,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>26</v>
+      <c r="A7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>151</v>
@@ -587,8 +557,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>27</v>
+      <c r="A8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="2">
         <v>143</v>
@@ -598,8 +568,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>28</v>
+      <c r="A9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>143</v>
@@ -609,8 +579,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>29</v>
+      <c r="A10" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>147</v>
@@ -620,8 +590,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>34</v>
+      <c r="A11" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>152</v>
@@ -632,7 +602,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>153</v>
@@ -643,7 +613,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>154</v>
@@ -654,7 +624,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>156</v>
@@ -664,8 +634,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>33</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2">
         <v>162</v>
@@ -675,8 +645,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>34</v>
+      <c r="A16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>161</v>
@@ -686,8 +656,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>35</v>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>155</v>
@@ -697,8 +667,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>36</v>
+      <c r="A18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>151</v>
@@ -708,8 +678,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>37</v>
+      <c r="A19" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>136</v>
@@ -719,8 +689,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>38</v>
+      <c r="A20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="2">
         <v>133</v>
@@ -737,5 +707,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/mucnuoc_20rec.xlsx
+++ b/data/mucnuoc_20rec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync\websvr\xampp\py_import_excel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync\websvr\python\py_import_excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F547EE-8AFB-41D3-BEC1-81CFE982ED60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2743DE-74D2-4A67-8010-78A5875921FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="18510" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Trạm đo</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Quới Sơn</t>
+  </si>
+  <si>
+    <t>161,3</t>
   </si>
 </sst>
 </file>
@@ -147,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +473,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -524,7 +528,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2">
@@ -571,9 +575,7 @@
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2">
-        <v>143</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -623,9 +625,6 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
       <c r="B14" s="2">
         <v>156</v>
       </c>
@@ -648,8 +647,8 @@
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2">
-        <v>161</v>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>

--- a/data/mucnuoc_20rec.xlsx
+++ b/data/mucnuoc_20rec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync\websvr\python\py_import_excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2743DE-74D2-4A67-8010-78A5875921FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47328F14-7DD7-4D6C-8660-63656AD7DB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="18510" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34290" yWindow="0" windowWidth="13710" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Trạm đo</t>
   </si>
@@ -103,7 +103,10 @@
     <t>Quới Sơn</t>
   </si>
   <si>
-    <t>161,3</t>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2.9.3</t>
   </si>
 </sst>
 </file>
@@ -150,12 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,13 +477,13 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -487,7 +491,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -498,7 +502,7 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>150</v>
       </c>
       <c r="C2" t="s">
@@ -506,10 +510,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>156</v>
       </c>
       <c r="C3" t="s">
@@ -520,7 +524,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>160</v>
       </c>
       <c r="C4" t="s">
@@ -528,10 +532,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>150</v>
       </c>
       <c r="C5" t="s">
@@ -539,10 +543,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>149</v>
       </c>
       <c r="C6" t="s">
@@ -550,10 +554,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>151</v>
       </c>
       <c r="C7" t="s">
@@ -561,30 +565,32 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2">
-        <v>143</v>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4">
+        <v>143</v>
+      </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>147</v>
       </c>
       <c r="C10" t="s">
@@ -592,11 +598,11 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2">
-        <v>152</v>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -606,7 +612,7 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>153</v>
       </c>
       <c r="C12" t="s">
@@ -617,7 +623,7 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>154</v>
       </c>
       <c r="C13" t="s">
@@ -625,7 +631,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4">
         <v>156</v>
       </c>
       <c r="C14" t="s">
@@ -633,10 +642,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>162</v>
       </c>
       <c r="C15" t="s">
@@ -644,21 +653,21 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
+      <c r="B16" s="4">
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>155</v>
       </c>
       <c r="C17" t="s">
@@ -666,10 +675,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>151</v>
       </c>
       <c r="C18" t="s">
@@ -677,10 +686,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>136</v>
       </c>
       <c r="C19" t="s">
@@ -688,12 +697,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2">
-        <v>133</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" t="s">
         <v>21</v>
       </c>
